--- a/GA_Parameters/IterationAverage.xlsx
+++ b/GA_Parameters/IterationAverage.xlsx
@@ -16,7 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Fpop10</t>
+  </si>
+  <si>
+    <t>Fpop25</t>
+  </si>
+  <si>
+    <t>Fpop50</t>
+  </si>
+  <si>
+    <t>Fpop100</t>
+  </si>
+  <si>
+    <t>Fpop200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Spop10</t>
+  </si>
+  <si>
+    <t>Spop25</t>
+  </si>
+  <si>
+    <t>Spop50</t>
+  </si>
+  <si>
+    <t>Spop100</t>
+  </si>
+  <si>
+    <t>Spop200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>STD_BGA</t>
+  </si>
+  <si>
+    <t>STD_EGA</t>
+  </si>
+  <si>
+    <t>Tpop10</t>
+  </si>
+  <si>
+    <t>Tpop25</t>
+  </si>
+  <si>
+    <t>Tpop50</t>
+  </si>
+  <si>
+    <t>Tpop100</t>
+  </si>
+  <si>
+    <t>Tpop200</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -164,27 +254,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0">
         <v>4.1760525376317492</v>
@@ -204,7 +294,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
         <v>0.39641068309405958</v>
@@ -224,7 +314,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0">
         <v>0.69691948609733156</v>
@@ -244,7 +334,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0">
         <v>0.038042349576667536</v>
@@ -281,27 +371,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0">
         <v>4.0970313870820236</v>
@@ -321,7 +411,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0">
         <v>0.33075601015709638</v>
@@ -341,7 +431,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0">
         <v>0.91888558880957172</v>
@@ -361,7 +451,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0">
         <v>0.036018772162799258</v>
@@ -398,27 +488,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0">
         <v>4.2729482266110255</v>
@@ -438,7 +528,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0">
         <v>0.36687595367383713</v>
@@ -458,7 +548,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0">
         <v>0.69023288953803852</v>
@@ -478,7 +568,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0">
         <v>0.039205791115944175</v>
